--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nts-Sort1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nts-Sort1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,16 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Nts</t>
+  </si>
+  <si>
+    <t>Sort1</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Nts</t>
-  </si>
-  <si>
-    <t>Sort1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.905497</v>
+        <v>2.700312333333333</v>
       </c>
       <c r="H2">
-        <v>14.716491</v>
+        <v>8.100937</v>
       </c>
       <c r="I2">
-        <v>0.9446018122065107</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9446018122065107</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.383699</v>
+        <v>1.619868333333333</v>
       </c>
       <c r="N2">
-        <v>4.151097</v>
+        <v>4.859605</v>
       </c>
       <c r="O2">
-        <v>0.08080976933214185</v>
+        <v>0.1089327058120143</v>
       </c>
       <c r="P2">
-        <v>0.08080976933214185</v>
+        <v>0.1089327058120143</v>
       </c>
       <c r="Q2">
-        <v>6.787731293403</v>
+        <v>4.374150438876112</v>
       </c>
       <c r="R2">
-        <v>61.089581640627</v>
+        <v>39.367353949885</v>
       </c>
       <c r="S2">
-        <v>0.0763330545551313</v>
+        <v>0.1089327058120143</v>
       </c>
       <c r="T2">
-        <v>0.0763330545551313</v>
+        <v>0.1089327058120143</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,14 +584,14 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>3</v>
       </c>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.905497</v>
+        <v>2.700312333333333</v>
       </c>
       <c r="H3">
-        <v>14.716491</v>
+        <v>8.100937</v>
       </c>
       <c r="I3">
-        <v>0.9446018122065107</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9446018122065107</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>7.386282</v>
       </c>
       <c r="O3">
-        <v>0.1437893994387872</v>
+        <v>0.1655705935257241</v>
       </c>
       <c r="P3">
-        <v>0.1437893994387872</v>
+        <v>0.1655705935257241</v>
       </c>
       <c r="Q3">
-        <v>12.077794730718</v>
+        <v>6.648422794026</v>
       </c>
       <c r="R3">
-        <v>108.700152576462</v>
+        <v>59.835805146234</v>
       </c>
       <c r="S3">
-        <v>0.1358237272859642</v>
+        <v>0.1655705935257241</v>
       </c>
       <c r="T3">
-        <v>0.1358237272859643</v>
+        <v>0.1655705935257241</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.905497</v>
+        <v>2.700312333333333</v>
       </c>
       <c r="H4">
-        <v>14.716491</v>
+        <v>8.100937</v>
       </c>
       <c r="I4">
-        <v>0.9446018122065107</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9446018122065107</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.941088000000001</v>
+        <v>7.682722666666667</v>
       </c>
       <c r="N4">
-        <v>26.823264</v>
+        <v>23.048168</v>
       </c>
       <c r="O4">
-        <v>0.5221708325715213</v>
+        <v>0.5166467859527435</v>
       </c>
       <c r="P4">
-        <v>0.5221708325715213</v>
+        <v>0.5166467859527435</v>
       </c>
       <c r="Q4">
-        <v>43.860480360736</v>
+        <v>20.74575077037955</v>
       </c>
       <c r="R4">
-        <v>394.744323246624</v>
+        <v>186.711756933416</v>
       </c>
       <c r="S4">
-        <v>0.4932435147284415</v>
+        <v>0.5166467859527435</v>
       </c>
       <c r="T4">
-        <v>0.4932435147284415</v>
+        <v>0.5166467859527435</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.905497</v>
+        <v>2.700312333333333</v>
       </c>
       <c r="H5">
-        <v>14.716491</v>
+        <v>8.100937</v>
       </c>
       <c r="I5">
-        <v>0.9446018122065107</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9446018122065107</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.336036333333333</v>
+        <v>3.105673</v>
       </c>
       <c r="N5">
-        <v>13.008109</v>
+        <v>9.317019</v>
       </c>
       <c r="O5">
-        <v>0.2532299986575496</v>
+        <v>0.2088499147095181</v>
       </c>
       <c r="P5">
-        <v>0.2532299986575496</v>
+        <v>0.2088499147095181</v>
       </c>
       <c r="Q5">
-        <v>21.27041322505767</v>
+        <v>8.386287105200333</v>
       </c>
       <c r="R5">
-        <v>191.433719025519</v>
+        <v>75.476583946803</v>
       </c>
       <c r="S5">
-        <v>0.2392015156369737</v>
+        <v>0.2088499147095181</v>
       </c>
       <c r="T5">
-        <v>0.2392015156369737</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.2876933333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.86308</v>
-      </c>
-      <c r="I6">
-        <v>0.0553981877934893</v>
-      </c>
-      <c r="J6">
-        <v>0.0553981877934893</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.383699</v>
-      </c>
-      <c r="N6">
-        <v>4.151097</v>
-      </c>
-      <c r="O6">
-        <v>0.08080976933214185</v>
-      </c>
-      <c r="P6">
-        <v>0.08080976933214185</v>
-      </c>
-      <c r="Q6">
-        <v>0.3980809776399999</v>
-      </c>
-      <c r="R6">
-        <v>3.58272879876</v>
-      </c>
-      <c r="S6">
-        <v>0.004476714777010547</v>
-      </c>
-      <c r="T6">
-        <v>0.004476714777010547</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.2876933333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.86308</v>
-      </c>
-      <c r="I7">
-        <v>0.0553981877934893</v>
-      </c>
-      <c r="J7">
-        <v>0.0553981877934893</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2.462094</v>
-      </c>
-      <c r="N7">
-        <v>7.386282</v>
-      </c>
-      <c r="O7">
-        <v>0.1437893994387872</v>
-      </c>
-      <c r="P7">
-        <v>0.1437893994387872</v>
-      </c>
-      <c r="Q7">
-        <v>0.7083280298399999</v>
-      </c>
-      <c r="R7">
-        <v>6.37495226856</v>
-      </c>
-      <c r="S7">
-        <v>0.00796567215282298</v>
-      </c>
-      <c r="T7">
-        <v>0.007965672152822982</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.2876933333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.86308</v>
-      </c>
-      <c r="I8">
-        <v>0.0553981877934893</v>
-      </c>
-      <c r="J8">
-        <v>0.0553981877934893</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>8.941088000000001</v>
-      </c>
-      <c r="N8">
-        <v>26.823264</v>
-      </c>
-      <c r="O8">
-        <v>0.5221708325715213</v>
-      </c>
-      <c r="P8">
-        <v>0.5221708325715213</v>
-      </c>
-      <c r="Q8">
-        <v>2.572291410346667</v>
-      </c>
-      <c r="R8">
-        <v>23.15062269312</v>
-      </c>
-      <c r="S8">
-        <v>0.0289273178430798</v>
-      </c>
-      <c r="T8">
-        <v>0.0289273178430798</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.2876933333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.86308</v>
-      </c>
-      <c r="I9">
-        <v>0.0553981877934893</v>
-      </c>
-      <c r="J9">
-        <v>0.0553981877934893</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>4.336036333333333</v>
-      </c>
-      <c r="N9">
-        <v>13.008109</v>
-      </c>
-      <c r="O9">
-        <v>0.2532299986575496</v>
-      </c>
-      <c r="P9">
-        <v>0.2532299986575496</v>
-      </c>
-      <c r="Q9">
-        <v>1.247448746191111</v>
-      </c>
-      <c r="R9">
-        <v>11.22703871572</v>
-      </c>
-      <c r="S9">
-        <v>0.01402848302057598</v>
-      </c>
-      <c r="T9">
-        <v>0.01402848302057598</v>
+        <v>0.2088499147095181</v>
       </c>
     </row>
   </sheetData>
